--- a/data/nao_domestico.xlsx
+++ b/data/nao_domestico.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\Matriz_Agua\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\matrizagua\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A08125A-A512-42B5-8925-CD85392C2F3C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0741A2-F734-46EC-9277-A54C1B494493}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{93538EA4-E098-436A-A61B-D8B7F458585D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{93538EA4-E098-436A-A61B-D8B7F458585D}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -73,7 +75,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +90,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -107,10 +120,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -120,9 +136,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{A9C8F119-380F-4866-8836-33B96018D5CF}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{666A685F-2C54-4EAB-A609-5B2D09D5D5D9}"/>
+    <cellStyle name="Percent 2" xfId="3" xr:uid="{C81E0F3E-9CDF-471D-B2EB-CFBC83C547EE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -138,7 +158,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -434,21 +454,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0364D6-FCEE-491D-9101-669379D9B4B1}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L7"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="17.5703125" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -486,7 +514,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2013</v>
       </c>
@@ -524,7 +552,7 @@
         <v>26300000</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2014</v>
       </c>
@@ -562,7 +590,7 @@
         <v>25900000</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2015</v>
       </c>
@@ -600,7 +628,7 @@
         <v>26200000</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2016</v>
       </c>
@@ -638,7 +666,7 @@
         <v>24035989.974999998</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2017</v>
       </c>
@@ -676,7 +704,7 @@
         <v>24301586.939999998</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2018</v>
       </c>
@@ -684,7 +712,7 @@
         <v>4199895.74</v>
       </c>
       <c r="C7" s="3">
-        <v>4984541.8999999994</v>
+        <v>5185087</v>
       </c>
       <c r="D7" s="3">
         <v>1790350</v>
@@ -708,14 +736,59 @@
         <v>1148290.6099999989</v>
       </c>
       <c r="K7" s="3">
-        <v>3641330.5899999961</v>
+        <v>3641331</v>
       </c>
       <c r="L7" s="4">
         <v>23077956.189999994</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B8" s="3">
+        <v>4085307</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5525060</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1696734</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2410460</v>
+      </c>
+      <c r="F8" s="3">
+        <v>974785</v>
+      </c>
+      <c r="G8" s="3">
+        <v>975464</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1939540</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1226649</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1215287</v>
+      </c>
+      <c r="K8" s="3">
+        <v>3428345</v>
+      </c>
+      <c r="L8" s="4">
+        <v>23477631</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D10" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
